--- a/analyses/MED4/MED4-proteinIDs-databaseID.xlsx
+++ b/analyses/MED4/MED4-proteinIDs-databaseID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/MED4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA89F480-7B34-604C-A386-29A2E16BF8E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4381187-0DB0-D14C-810E-F21DBA89F56C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="560" windowWidth="27640" windowHeight="14640" xr2:uid="{FF1CDE5E-E6E5-6041-A883-A5335E990494}"/>
+    <workbookView xWindow="600" yWindow="520" windowWidth="27640" windowHeight="14640" xr2:uid="{FF1CDE5E-E6E5-6041-A883-A5335E990494}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;2 unique DB proteins" sheetId="1" r:id="rId1"/>
@@ -8526,13 +8526,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="33.5" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
